--- a/data/pca/factorExposure/factorExposure_2012-10-11.xlsx
+++ b/data/pca/factorExposure/factorExposure_2012-10-11.xlsx
@@ -14,9 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>factor1</t>
+  </si>
+  <si>
+    <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -683,838 +689,1462 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B104"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>-0.00173866339215255</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>-0.001971024484993468</v>
+      </c>
+      <c r="C2">
+        <v>0.02832623858065636</v>
+      </c>
+      <c r="D2">
+        <v>0.005554611291673892</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>-0.0005553595029662909</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>0.006976857604886842</v>
+      </c>
+      <c r="C4">
+        <v>0.08282193776843459</v>
+      </c>
+      <c r="D4">
+        <v>0.07195550061684815</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>0.0001196161810669146</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>0.01389123439825168</v>
+      </c>
+      <c r="C6">
+        <v>0.1133926110473215</v>
+      </c>
+      <c r="D6">
+        <v>0.02579214119288983</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>-0.0004175528758312583</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>0.004974065110973594</v>
+      </c>
+      <c r="C7">
+        <v>0.0579640014882911</v>
+      </c>
+      <c r="D7">
+        <v>0.03373428088973929</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>-0.0007052734966674722</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>0.005890739054530578</v>
+      </c>
+      <c r="C8">
+        <v>0.03552917293451842</v>
+      </c>
+      <c r="D8">
+        <v>0.03971592422673609</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>-0.002603934373124774</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>0.005244553145807008</v>
+      </c>
+      <c r="C9">
+        <v>0.07052659798732039</v>
+      </c>
+      <c r="D9">
+        <v>0.07626457810848557</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>0.002309473402677517</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>0.005813328975822382</v>
+      </c>
+      <c r="C10">
+        <v>0.05639369364679284</v>
+      </c>
+      <c r="D10">
+        <v>-0.1950972887003976</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>-0.00313550457932989</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>0.005586494112212181</v>
+      </c>
+      <c r="C11">
+        <v>0.07933636379866836</v>
+      </c>
+      <c r="D11">
+        <v>0.06470605193806603</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>-0.001538538021757559</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>0.004086393082467638</v>
+      </c>
+      <c r="C12">
+        <v>0.06447257475946704</v>
+      </c>
+      <c r="D12">
+        <v>0.05152579611622066</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>0.002915971158572544</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>0.008386192931672438</v>
+      </c>
+      <c r="C13">
+        <v>0.06707746718909571</v>
+      </c>
+      <c r="D13">
+        <v>0.06253752468405684</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>-0.001813985726320059</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>0.0007311393611406611</v>
+      </c>
+      <c r="C14">
+        <v>0.04232753086515296</v>
+      </c>
+      <c r="D14">
+        <v>0.01115792495704023</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>-0.0003396181886093835</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>0.005803539906630864</v>
+      </c>
+      <c r="C15">
+        <v>0.04065080383635167</v>
+      </c>
+      <c r="D15">
+        <v>0.02867758054320095</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>-0.0007600306509297595</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>0.004994135484075366</v>
+      </c>
+      <c r="C16">
+        <v>0.06406472214076808</v>
+      </c>
+      <c r="D16">
+        <v>0.05782077482373296</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B20">
-        <v>0.0006484055117799002</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>0.008888248783017994</v>
+      </c>
+      <c r="C20">
+        <v>0.06351020047556338</v>
+      </c>
+      <c r="D20">
+        <v>0.05018713262920963</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B21">
-        <v>0.006251888120598697</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>0.009477731544280679</v>
+      </c>
+      <c r="C21">
+        <v>0.01923051877901212</v>
+      </c>
+      <c r="D21">
+        <v>0.04206786350927874</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B22">
-        <v>-0.022684444837019</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>-0.006535499931004551</v>
+      </c>
+      <c r="C22">
+        <v>0.08692531650865841</v>
+      </c>
+      <c r="D22">
+        <v>0.1233385184265742</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B23">
-        <v>-0.02246957600499935</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>-0.006348515662115767</v>
+      </c>
+      <c r="C23">
+        <v>0.0873646816505982</v>
+      </c>
+      <c r="D23">
+        <v>0.1242179746675059</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B24">
-        <v>-0.002511225037074401</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>0.005552246068671205</v>
+      </c>
+      <c r="C24">
+        <v>0.07582193150648718</v>
+      </c>
+      <c r="D24">
+        <v>0.06854090979774298</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B25">
-        <v>-0.004244910228133839</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>0.003133416248751837</v>
+      </c>
+      <c r="C25">
+        <v>0.07806334436387501</v>
+      </c>
+      <c r="D25">
+        <v>0.06664545115012471</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B26">
-        <v>-0.003471885088691111</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>0.003712497316677236</v>
+      </c>
+      <c r="C26">
+        <v>0.03887853021768387</v>
+      </c>
+      <c r="D26">
+        <v>0.02519879384414179</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B28">
-        <v>-0.007162092353913397</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>-0.00122974129746179</v>
+      </c>
+      <c r="C28">
+        <v>0.104570378963774</v>
+      </c>
+      <c r="D28">
+        <v>-0.3225366316820492</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B29">
-        <v>-0.0008534425376906494</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>0.002672594269849437</v>
+      </c>
+      <c r="C29">
+        <v>0.04820136989929472</v>
+      </c>
+      <c r="D29">
+        <v>0.01011520233651594</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B30">
-        <v>-0.005654842602694854</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>0.009647091035453415</v>
+      </c>
+      <c r="C30">
+        <v>0.1415572387739389</v>
+      </c>
+      <c r="D30">
+        <v>0.1082997643078109</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B31">
-        <v>0.001127717059570407</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>0.006261060458027018</v>
+      </c>
+      <c r="C31">
+        <v>0.04364234904765481</v>
+      </c>
+      <c r="D31">
+        <v>0.03245695934104403</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B32">
-        <v>-0.001834328635517658</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>0.003435969204221426</v>
+      </c>
+      <c r="C32">
+        <v>0.03940957418423815</v>
+      </c>
+      <c r="D32">
+        <v>0.02491899827029696</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B33">
-        <v>-0.001510187669974992</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>0.0090711934274395</v>
+      </c>
+      <c r="C33">
+        <v>0.08811184043751105</v>
+      </c>
+      <c r="D33">
+        <v>0.0661520991117315</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B34">
-        <v>-0.003524293233716445</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>0.004158980848481928</v>
+      </c>
+      <c r="C34">
+        <v>0.05768859702156183</v>
+      </c>
+      <c r="D34">
+        <v>0.0588583360690048</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B35">
-        <v>0.0007420728465612958</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>0.005246004168713169</v>
+      </c>
+      <c r="C35">
+        <v>0.04048301892135343</v>
+      </c>
+      <c r="D35">
+        <v>0.0212517779062718</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B36">
-        <v>-0.005403627236751343</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>-0.001462080686041734</v>
+      </c>
+      <c r="C36">
+        <v>0.02431433586622885</v>
+      </c>
+      <c r="D36">
+        <v>0.0258971862283935</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B38">
-        <v>8.687401995287602e-05</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>0.009263004048756539</v>
+      </c>
+      <c r="C38">
+        <v>0.03783084795493304</v>
+      </c>
+      <c r="D38">
+        <v>0.01427140075544666</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B39">
-        <v>-0.01350511995861723</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>-0.001507807533185598</v>
+      </c>
+      <c r="C39">
+        <v>0.1132758533095181</v>
+      </c>
+      <c r="D39">
+        <v>0.07747739099371762</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B40">
-        <v>-0.008334213999254223</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>0.003592996875908111</v>
+      </c>
+      <c r="C40">
+        <v>0.09008784901577006</v>
+      </c>
+      <c r="D40">
+        <v>0.02073503782513935</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B41">
-        <v>0.0007933293551117122</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>0.007208824266837058</v>
+      </c>
+      <c r="C41">
+        <v>0.03882980494037468</v>
+      </c>
+      <c r="D41">
+        <v>0.03973638375125541</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B43">
-        <v>-0.002614630055400595</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>0.003847329956943197</v>
+      </c>
+      <c r="C43">
+        <v>0.05304565355451098</v>
+      </c>
+      <c r="D43">
+        <v>0.02789904006288259</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B44">
-        <v>-0.01376910211516938</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>0.00278749380068046</v>
+      </c>
+      <c r="C44">
+        <v>0.1038296493601976</v>
+      </c>
+      <c r="D44">
+        <v>0.07070044356214726</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B46">
-        <v>-0.0008198173548166412</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>0.001699296105984949</v>
+      </c>
+      <c r="C46">
+        <v>0.03251374464126829</v>
+      </c>
+      <c r="D46">
+        <v>0.03445526643346753</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B47">
-        <v>-0.001437988090241732</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>0.002081314475963548</v>
+      </c>
+      <c r="C47">
+        <v>0.0349817633039222</v>
+      </c>
+      <c r="D47">
+        <v>0.02297255981767126</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B48">
-        <v>0.003135739766583884</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>0.006591019701157745</v>
+      </c>
+      <c r="C48">
+        <v>0.03002458465918556</v>
+      </c>
+      <c r="D48">
+        <v>0.0368352400692536</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B49">
-        <v>-0.007150067721097598</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>0.01735928502161789</v>
+      </c>
+      <c r="C49">
+        <v>0.1896650662131399</v>
+      </c>
+      <c r="D49">
+        <v>0.007006455050302663</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B50">
-        <v>-0.0006466119486329307</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>0.003470681600020255</v>
+      </c>
+      <c r="C50">
+        <v>0.04240198428196381</v>
+      </c>
+      <c r="D50">
+        <v>0.03923489020754706</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B51">
-        <v>-2.602804851047713e-05</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>0.004727957546178795</v>
+      </c>
+      <c r="C51">
+        <v>0.02594320420055608</v>
+      </c>
+      <c r="D51">
+        <v>0.02184531426664191</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B53">
-        <v>0.002209347171963799</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>0.02128375130696129</v>
+      </c>
+      <c r="C53">
+        <v>0.1716711183386521</v>
+      </c>
+      <c r="D53">
+        <v>0.02258043707465963</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B54">
-        <v>0.002061133715173827</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>0.008980146622525874</v>
+      </c>
+      <c r="C54">
+        <v>0.05431561536634798</v>
+      </c>
+      <c r="D54">
+        <v>0.0439565116753874</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B55">
-        <v>-0.003331889026158982</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>0.009505618092324463</v>
+      </c>
+      <c r="C55">
+        <v>0.1074819616047481</v>
+      </c>
+      <c r="D55">
+        <v>0.04105848249874484</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B56">
-        <v>0.004342280864094872</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>0.02021273841968753</v>
+      </c>
+      <c r="C56">
+        <v>0.1759643640521101</v>
+      </c>
+      <c r="D56">
+        <v>0.01543820982226426</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B58">
-        <v>-0.003253029514279471</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>0.01907133240210267</v>
+      </c>
+      <c r="C58">
+        <v>0.104046565861189</v>
+      </c>
+      <c r="D58">
+        <v>0.07369838119427476</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B59">
-        <v>-0.00637533572984954</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>0.01070824730758189</v>
+      </c>
+      <c r="C59">
+        <v>0.16897112182868</v>
+      </c>
+      <c r="D59">
+        <v>-0.3405064690853724</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B60">
-        <v>-0.001885854332411918</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>0.02491494502895049</v>
+      </c>
+      <c r="C60">
+        <v>0.225362403200368</v>
+      </c>
+      <c r="D60">
+        <v>0.02034547729538885</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B61">
-        <v>-0.01212414116589797</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>-0.001868220975785979</v>
+      </c>
+      <c r="C61">
+        <v>0.09443147946278513</v>
+      </c>
+      <c r="D61">
+        <v>0.05818833080238812</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B62">
-        <v>0.1545509858851418</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>0.1491502189560487</v>
+      </c>
+      <c r="C62">
+        <v>0.09655511781250968</v>
+      </c>
+      <c r="D62">
+        <v>0.02627007411382056</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B63">
-        <v>-0.0008721516333860865</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <v>0.006501745178588968</v>
+      </c>
+      <c r="C63">
+        <v>0.053377677742368</v>
+      </c>
+      <c r="D63">
+        <v>0.03226701105519676</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B64">
-        <v>0.002095103392550823</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>0.01584933345813838</v>
+      </c>
+      <c r="C64">
+        <v>0.1048877762269308</v>
+      </c>
+      <c r="D64">
+        <v>0.05726066458471734</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B65">
-        <v>0.003342303584915044</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <v>0.0178590440190105</v>
+      </c>
+      <c r="C65">
+        <v>0.121578985226078</v>
+      </c>
+      <c r="D65">
+        <v>0.02776112192737588</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B66">
-        <v>-0.003840542065885924</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+        <v>0.01340999822333585</v>
+      </c>
+      <c r="C66">
+        <v>0.1615639017814006</v>
+      </c>
+      <c r="D66">
+        <v>0.1081326091838265</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B67">
-        <v>0.002444550292948136</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+        <v>0.01546279678808591</v>
+      </c>
+      <c r="C67">
+        <v>0.06977886139097006</v>
+      </c>
+      <c r="D67">
+        <v>0.02585528511123676</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B68">
-        <v>-0.005503814744932106</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+        <v>0.001318456414721342</v>
+      </c>
+      <c r="C68">
+        <v>0.0873930129292506</v>
+      </c>
+      <c r="D68">
+        <v>-0.2565576852322788</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B69">
-        <v>-0.001107836651042674</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+        <v>0.006417205237995152</v>
+      </c>
+      <c r="C69">
+        <v>0.05254257611628549</v>
+      </c>
+      <c r="D69">
+        <v>0.03783434760495011</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B70">
-        <v>0.0007334838597346098</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>0.002013779102303488</v>
+      </c>
+      <c r="C70">
+        <v>0.005934538931415929</v>
+      </c>
+      <c r="D70">
+        <v>0.0005496644909814025</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B71">
-        <v>-0.0008610394041168101</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+        <v>0.006096268795711593</v>
+      </c>
+      <c r="C71">
+        <v>0.09209338775181516</v>
+      </c>
+      <c r="D71">
+        <v>-0.3012070344962047</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B72">
-        <v>-0.003888826555694093</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+        <v>0.0163955654204963</v>
+      </c>
+      <c r="C72">
+        <v>0.1563114460799998</v>
+      </c>
+      <c r="D72">
+        <v>0.01295188373420713</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B73">
-        <v>-0.005413691632478806</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+        <v>0.03168213804967179</v>
+      </c>
+      <c r="C73">
+        <v>0.2821308461132456</v>
+      </c>
+      <c r="D73">
+        <v>0.0563202229013525</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B74">
-        <v>-0.005362795550101157</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+        <v>0.002206944119971834</v>
+      </c>
+      <c r="C74">
+        <v>0.1018704591592735</v>
+      </c>
+      <c r="D74">
+        <v>0.03779956823924122</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B75">
-        <v>-0.003424433862259505</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+        <v>0.0109232625993209</v>
+      </c>
+      <c r="C75">
+        <v>0.1225153026061031</v>
+      </c>
+      <c r="D75">
+        <v>0.02385566894794154</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B76">
-        <v>0.008529903219054542</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>0.02215663217840018</v>
+      </c>
+      <c r="C76">
+        <v>0.1470041509655467</v>
+      </c>
+      <c r="D76">
+        <v>0.05954405987504155</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B77">
-        <v>-0.000729047927202801</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
+        <v>0.0216104860182923</v>
+      </c>
+      <c r="C77">
+        <v>0.1123521504206088</v>
+      </c>
+      <c r="D77">
+        <v>0.0516321408992877</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B78">
-        <v>0.001445760673681389</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+        <v>0.0150753613903163</v>
+      </c>
+      <c r="C78">
+        <v>0.09638682804035516</v>
+      </c>
+      <c r="D78">
+        <v>0.07962400789077666</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B79">
-        <v>0.02241715978166661</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+        <v>0.03850319898081586</v>
+      </c>
+      <c r="C79">
+        <v>0.1565293659927341</v>
+      </c>
+      <c r="D79">
+        <v>0.03257109619211177</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B80">
-        <v>0.006858898541258493</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>0.01006206050909957</v>
+      </c>
+      <c r="C80">
+        <v>0.03766156486431708</v>
+      </c>
+      <c r="D80">
+        <v>0.03124007711250717</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B81">
-        <v>0.0008745712276265096</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>0.01574368401696256</v>
+      </c>
+      <c r="C81">
+        <v>0.1299848670674366</v>
+      </c>
+      <c r="D81">
+        <v>0.03770038512669328</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B82">
-        <v>0.004862760762793493</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+        <v>0.01975671302620494</v>
+      </c>
+      <c r="C82">
+        <v>0.138390412257283</v>
+      </c>
+      <c r="D82">
+        <v>0.03896477763867325</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B83">
-        <v>-0.005863288272231966</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+        <v>0.01052744997787358</v>
+      </c>
+      <c r="C83">
+        <v>0.06036116845406778</v>
+      </c>
+      <c r="D83">
+        <v>0.04698589322819734</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B84">
-        <v>0.01106277982969261</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+        <v>0.01188592852226686</v>
+      </c>
+      <c r="C84">
+        <v>0.03821687629846331</v>
+      </c>
+      <c r="D84">
+        <v>-0.002736569166965081</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B85">
-        <v>0.01421937666293052</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
+        <v>0.02919974738532656</v>
+      </c>
+      <c r="C85">
+        <v>0.1245787449298482</v>
+      </c>
+      <c r="D85">
+        <v>0.04004408079799678</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B86">
-        <v>-0.002322814643943527</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+        <v>0.004657585516048149</v>
+      </c>
+      <c r="C86">
+        <v>0.05074838824689065</v>
+      </c>
+      <c r="D86">
+        <v>0.02739225864797144</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B87">
-        <v>-0.00263432816705351</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
+        <v>0.01080054778845116</v>
+      </c>
+      <c r="C87">
+        <v>0.1273028276950579</v>
+      </c>
+      <c r="D87">
+        <v>0.0793367904507712</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B88">
-        <v>-0.01087842755666284</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+        <v>-0.003111159003553151</v>
+      </c>
+      <c r="C88">
+        <v>0.06336104249647335</v>
+      </c>
+      <c r="D88">
+        <v>0.02667920547155812</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B89">
-        <v>-0.01120761869723504</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+        <v>-0.001350237578790996</v>
+      </c>
+      <c r="C89">
+        <v>0.1398998556570082</v>
+      </c>
+      <c r="D89">
+        <v>-0.3183876811916713</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B90">
-        <v>-0.003500045878766777</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>0.007074438234311677</v>
+      </c>
+      <c r="C90">
+        <v>0.1212773043823115</v>
+      </c>
+      <c r="D90">
+        <v>-0.3140784636827583</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B91">
-        <v>-0.0006714651375065462</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+        <v>0.01033438694900525</v>
+      </c>
+      <c r="C91">
+        <v>0.09946157851268508</v>
+      </c>
+      <c r="D91">
+        <v>0.02480684808400968</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B92">
-        <v>-0.008727936777374596</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+        <v>0.0009533322419644109</v>
+      </c>
+      <c r="C92">
+        <v>0.1347939304971144</v>
+      </c>
+      <c r="D92">
+        <v>-0.321767678565355</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B93">
-        <v>-0.002364527516674003</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
+        <v>0.004923281057661079</v>
+      </c>
+      <c r="C93">
+        <v>0.1058423154946473</v>
+      </c>
+      <c r="D93">
+        <v>-0.298640987047862</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B94">
-        <v>0.003600816417924905</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
+        <v>0.0215034185517416</v>
+      </c>
+      <c r="C94">
+        <v>0.1424023024910666</v>
+      </c>
+      <c r="D94">
+        <v>0.05305224387477157</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B95">
-        <v>-0.001712259973921187</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
+        <v>0.0165431610402714</v>
+      </c>
+      <c r="C95">
+        <v>0.1220151363274027</v>
+      </c>
+      <c r="D95">
+        <v>0.06474483781011972</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:2">
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B97">
-        <v>0.006730471978360168</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
+        <v>0.03710220886006058</v>
+      </c>
+      <c r="C97">
+        <v>0.224850494506449</v>
+      </c>
+      <c r="D97">
+        <v>0.001427089341505815</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B98">
-        <v>0.00414855589499786</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
+        <v>0.03782058849742179</v>
+      </c>
+      <c r="C98">
+        <v>0.2567073994066517</v>
+      </c>
+      <c r="D98">
+        <v>0.03218835790016345</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B99">
-        <v>0.9861531267868033</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
+        <v>0.9813352324683083</v>
+      </c>
+      <c r="C99">
+        <v>-0.1199218803897423</v>
+      </c>
+      <c r="D99">
+        <v>-0.02333667835736295</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:2">
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B101">
-        <v>-0.0007825839885415775</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
+        <v>0.002714724657731328</v>
+      </c>
+      <c r="C101">
+        <v>0.04833303785700106</v>
+      </c>
+      <c r="D101">
+        <v>0.01050887008882926</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:2">
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:2">
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
         <v>0</v>
       </c>
     </row>
